--- a/MyFramework/Excel/Hello.xlsx
+++ b/MyFramework/Excel/Hello.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA3BF89-14D0-4B1C-94F5-64B07856AEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1654625D-94FD-42E8-94AD-8C5383093B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="345" windowWidth="10545" windowHeight="6015" xr2:uid="{332EA48D-3A49-493C-A039-9A2FABE63B43}"/>
   </bookViews>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>sup*2005</t>
+    <t>*******</t>
   </si>
   <si>
-    <t>sangeeta.sudhirh@gmail.com</t>
+    <t>********</t>
   </si>
 </sst>
 </file>
@@ -401,9 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE573A9-1908-4AB6-8D4D-B40932F0F1DC}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -420,7 +418,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{FD09C496-A847-49AC-BAFB-544FA3C0FAE8}"/>
+    <hyperlink ref="A1" r:id="rId1" display="sangeeta.sudhirh@gmail.com" xr:uid="{FD09C496-A847-49AC-BAFB-544FA3C0FAE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
